--- a/RAS 전처리 SAM/PEP버전 사회계정행렬 RAS 적용.xlsx
+++ b/RAS 전처리 SAM/PEP버전 사회계정행렬 RAS 적용.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/RAS 전처리 SAM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovation\Desktop\김동요\jupyter\프로젝트\RAS 전처리 SAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D981187-DB09-1742-A4FC-FB71C4F0B201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{485303ED-E0A2-AB4F-8D11-35FDC4DD65AB}"/>
+    <workbookView xWindow="420" yWindow="495" windowWidth="28800" windowHeight="17505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="32">
   <si>
     <t>USK</t>
   </si>
@@ -126,15 +125,23 @@
   <si>
     <t>OTH</t>
   </si>
+  <si>
+    <t>AGR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,6 +154,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -188,7 +204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,6 +215,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,16 +533,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968F6E8D-CDE6-9749-A191-C5FCB8991585}">
-  <dimension ref="A1:AL37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -575,64 +594,76 @@
         <v>25</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AH1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -672,76 +703,88 @@
         <v>11</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -793,36 +836,28 @@
       <c r="Q3" s="3">
         <v>0</v>
       </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
         <v>6080.8269779548673</v>
       </c>
-      <c r="T3" s="3">
+      <c r="X3" s="3">
         <v>114487.9275182594</v>
       </c>
-      <c r="U3" s="3">
+      <c r="Y3" s="3">
         <v>48084.950080758637</v>
       </c>
-      <c r="V3" s="3">
+      <c r="Z3" s="3">
         <v>279038.13810595521</v>
       </c>
-      <c r="W3" s="3">
+      <c r="AA3" s="3">
         <v>32127.375908413</v>
       </c>
-      <c r="X3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>0</v>
-      </c>
       <c r="AB3" s="3">
         <v>0</v>
       </c>
@@ -851,12 +886,24 @@
         <v>0</v>
       </c>
       <c r="AK3" s="3">
-        <f>SUM(C3:AJ3)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="3">
+        <f>SUM(C3:AN3)</f>
         <v>479819.21859134105</v>
       </c>
-      <c r="AL3" s="1"/>
+      <c r="AP3" s="1"/>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -908,36 +955,28 @@
       <c r="Q4" s="3">
         <v>0</v>
       </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
         <v>1252.6722501401889</v>
       </c>
-      <c r="T4" s="3">
+      <c r="X4" s="3">
         <v>74963.727229741839</v>
       </c>
-      <c r="U4" s="3">
+      <c r="Y4" s="3">
         <v>49188.770594285073</v>
       </c>
-      <c r="V4" s="3">
+      <c r="Z4" s="3">
         <v>282038.497500217</v>
       </c>
-      <c r="W4" s="3">
+      <c r="AA4" s="3">
         <v>26145.877834274888</v>
       </c>
-      <c r="X4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>0</v>
-      </c>
       <c r="AB4" s="3">
         <v>0</v>
       </c>
@@ -966,12 +1005,24 @@
         <v>0</v>
       </c>
       <c r="AK4" s="3">
-        <f t="shared" ref="AK4:AK36" si="0">SUM(C4:AJ4)</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="3">
+        <f>SUM(C4:AN4)</f>
         <v>433589.54540865897</v>
       </c>
-      <c r="AL4" s="1"/>
+      <c r="AP4" s="1"/>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1023,33 +1074,25 @@
       <c r="Q5" s="3">
         <v>0</v>
       </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
         <v>25571.789376252429</v>
       </c>
-      <c r="T5" s="3">
+      <c r="X5" s="3">
         <v>269887.0585612579</v>
       </c>
-      <c r="U5" s="3">
+      <c r="Y5" s="3">
         <v>39435.74185854775</v>
       </c>
-      <c r="V5" s="3">
+      <c r="Z5" s="3">
         <v>445137.60420704202</v>
       </c>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0</v>
-      </c>
       <c r="AA5" s="3">
         <v>0</v>
       </c>
@@ -1081,12 +1124,24 @@
         <v>0</v>
       </c>
       <c r="AK5" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="3">
+        <f>SUM(C5:AN5)</f>
         <v>780032.19400310004</v>
       </c>
-      <c r="AL5" s="1"/>
+      <c r="AP5" s="1"/>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1138,36 +1193,28 @@
       <c r="Q6" s="3">
         <v>0</v>
       </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
       <c r="V6" s="3">
         <v>0</v>
       </c>
       <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
         <v>46640.817996899998</v>
       </c>
-      <c r="X6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>0</v>
-      </c>
       <c r="AB6" s="3">
         <v>0</v>
       </c>
@@ -1196,12 +1243,24 @@
         <v>0</v>
       </c>
       <c r="AK6" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="3">
+        <f>SUM(C6:AN6)</f>
         <v>46640.817996899998</v>
       </c>
-      <c r="AL6" s="1"/>
+      <c r="AP6" s="1"/>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1253,18 +1312,10 @@
       <c r="Q7" s="3">
         <v>0</v>
       </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
       <c r="V7" s="3">
         <v>0</v>
       </c>
@@ -1311,12 +1362,24 @@
         <v>0</v>
       </c>
       <c r="AK7" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="3">
+        <f>SUM(C7:AN7)</f>
         <v>20164.852051745802</v>
       </c>
-      <c r="AL7" s="1"/>
+      <c r="AP7" s="1"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1368,18 +1431,10 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
       <c r="V8" s="3">
         <v>0</v>
       </c>
@@ -1426,12 +1481,24 @@
         <v>0</v>
       </c>
       <c r="AK8" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="3">
+        <f>SUM(C8:AN8)</f>
         <v>89879.938491701716</v>
       </c>
-      <c r="AL8" s="1"/>
+      <c r="AP8" s="1"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1483,18 +1550,10 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
       <c r="V9" s="3">
         <v>0</v>
       </c>
@@ -1541,12 +1600,24 @@
         <v>0</v>
       </c>
       <c r="AK9" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3">
+        <f>SUM(C9:AN9)</f>
         <v>177745.08257295267</v>
       </c>
-      <c r="AL9" s="1"/>
+      <c r="AP9" s="1"/>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1598,18 +1669,10 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
       <c r="V10" s="3">
         <v>0</v>
       </c>
@@ -1656,12 +1719,24 @@
         <v>0</v>
       </c>
       <c r="AK10" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="3">
+        <f>SUM(C10:AN10)</f>
         <v>292908.32654043281</v>
       </c>
-      <c r="AL10" s="1"/>
+      <c r="AP10" s="1"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1713,18 +1788,10 @@
       <c r="Q11" s="3">
         <v>0</v>
       </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
       <c r="V11" s="3">
         <v>0</v>
       </c>
@@ -1771,12 +1838,24 @@
         <v>0</v>
       </c>
       <c r="AK11" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="3">
+        <f>SUM(C11:AN11)</f>
         <v>594688.26434316696</v>
       </c>
-      <c r="AL11" s="1"/>
+      <c r="AP11" s="1"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1828,18 +1907,10 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
       <c r="V12" s="3">
         <v>0</v>
       </c>
@@ -1886,12 +1957,24 @@
         <v>0</v>
       </c>
       <c r="AK12" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="3">
+        <f>SUM(C12:AN12)</f>
         <v>564695.31200000003</v>
       </c>
-      <c r="AL12" s="1"/>
+      <c r="AP12" s="1"/>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1935,26 +2018,18 @@
         <v>96377.730160772247</v>
       </c>
       <c r="O13" s="3">
-        <v>72174.278000000006</v>
+        <v>23757.155999999999</v>
       </c>
       <c r="P13" s="3">
         <v>328836.58748042781</v>
       </c>
       <c r="Q13" s="3">
-        <v>23757.155999999999</v>
-      </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
+        <v>72174.278000000006</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
       <c r="V13" s="3">
         <v>0</v>
       </c>
@@ -1965,23 +2040,23 @@
         <v>0</v>
       </c>
       <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
         <v>147.1173226795222</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="AD13" s="3">
         <v>2.3797170804920289</v>
       </c>
-      <c r="AA13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>0</v>
-      </c>
       <c r="AE13" s="3">
         <v>0</v>
       </c>
@@ -1995,18 +2070,30 @@
         <v>0</v>
       </c>
       <c r="AI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="3">
         <v>1173.5787674508999</v>
       </c>
-      <c r="AJ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="3">
-        <f t="shared" si="0"/>
+      <c r="AN13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="3">
+        <f>SUM(C13:AN13)</f>
         <v>662919.92576177313</v>
       </c>
-      <c r="AL13" s="1"/>
+      <c r="AP13" s="1"/>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -2058,18 +2145,10 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -2116,17 +2195,29 @@
         <v>0</v>
       </c>
       <c r="AK14" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="3">
+        <f>SUM(C14:AN14)</f>
         <v>96377.730160772233</v>
       </c>
-      <c r="AL14" s="1"/>
+      <c r="AP14" s="1"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -2156,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>72174.278000000006</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -2173,18 +2264,10 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
       <c r="V15" s="3">
         <v>0</v>
       </c>
@@ -2204,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="AB15" s="3">
-        <v>0</v>
+        <v>514.29821253261889</v>
       </c>
       <c r="AC15" s="3">
-        <v>0</v>
+        <v>22920.00615608543</v>
       </c>
       <c r="AD15" s="3">
         <v>0</v>
       </c>
       <c r="AE15" s="3">
-        <v>0</v>
+        <v>0.97630169490516217</v>
       </c>
       <c r="AF15" s="3">
-        <v>0</v>
+        <v>321.87532968704397</v>
       </c>
       <c r="AG15" s="3">
         <v>0</v>
@@ -2231,12 +2314,24 @@
         <v>0</v>
       </c>
       <c r="AK15" s="3">
-        <f t="shared" si="0"/>
-        <v>72174.278000000006</v>
-      </c>
-      <c r="AL15" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="3">
+        <f>SUM(C15:AN15)</f>
+        <v>23757.155999999999</v>
+      </c>
+      <c r="AP15" s="1"/>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2288,36 +2383,28 @@
       <c r="Q16" s="3">
         <v>0</v>
       </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
         <v>137493.77120313421</v>
       </c>
-      <c r="U16" s="3">
+      <c r="Y16" s="3">
         <v>70402.285386123753</v>
       </c>
-      <c r="V16" s="3">
+      <c r="Z16" s="3">
         <v>112832.10461876349</v>
       </c>
-      <c r="W16" s="3">
+      <c r="AA16" s="3">
         <v>8108.426272406421</v>
       </c>
-      <c r="X16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>0</v>
-      </c>
       <c r="AB16" s="3">
         <v>0</v>
       </c>
@@ -2346,17 +2433,29 @@
         <v>0</v>
       </c>
       <c r="AK16" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="3">
+        <f>SUM(C16:AN16)</f>
         <v>328836.58748042787</v>
       </c>
-      <c r="AL16" s="1"/>
+      <c r="AP16" s="1"/>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -2386,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>72174.278000000006</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -2403,18 +2502,10 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
       <c r="V17" s="3">
         <v>0</v>
       </c>
@@ -2422,19 +2513,19 @@
         <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>514.29821253261889</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
-        <v>22920.00615608543</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
         <v>0</v>
       </c>
       <c r="AA17" s="3">
-        <v>0.97630169490516217</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="3">
-        <v>321.87532968704397</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="3">
         <v>0</v>
@@ -2461,12 +2552,24 @@
         <v>0</v>
       </c>
       <c r="AK17" s="3">
-        <f t="shared" si="0"/>
-        <v>23757.155999999999</v>
-      </c>
-      <c r="AL17" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="3">
+        <f>SUM(C17:AN17)</f>
+        <v>72174.278000000006</v>
+      </c>
+      <c r="AP17" s="1"/>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -2518,18 +2621,10 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
       <c r="V18" s="3">
         <v>0</v>
       </c>
@@ -2537,56 +2632,68 @@
         <v>0</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>8612.4824257870368</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AC18" s="3">
         <v>423079.60164977232</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AD18" s="3">
         <v>233.126507074963</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AE18" s="3">
         <v>88959.274326177212</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AF18" s="3">
         <v>18779.747209320569</v>
       </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="3">
-        <v>0</v>
-      </c>
       <c r="AG18" s="3">
         <v>0</v>
       </c>
       <c r="AH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="3">
         <v>221854.21984649391</v>
       </c>
-      <c r="AI18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="3">
-        <f t="shared" si="0"/>
+      <c r="AM18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="3">
+        <f>SUM(C18:AN18)</f>
         <v>761603.0070000001</v>
       </c>
-      <c r="AL18" s="1"/>
+      <c r="AP18" s="1"/>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -2633,18 +2740,10 @@
       <c r="Q19" s="3">
         <v>0</v>
       </c>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
-        <v>0</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0</v>
-      </c>
-      <c r="U19" s="3">
-        <v>0</v>
-      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
       <c r="V19" s="3">
         <v>0</v>
       </c>
@@ -2652,35 +2751,35 @@
         <v>0</v>
       </c>
       <c r="X19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
         <v>62840.173361680361</v>
       </c>
-      <c r="Y19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>0</v>
-      </c>
       <c r="AC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="3">
         <v>1193.876</v>
       </c>
-      <c r="AD19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="3">
-        <v>0</v>
-      </c>
       <c r="AH19" s="3">
         <v>0</v>
       </c>
@@ -2691,12 +2790,24 @@
         <v>0</v>
       </c>
       <c r="AK19" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="3">
+        <f>SUM(C19:AN19)</f>
         <v>64034.049361680358</v>
       </c>
-      <c r="AL19" s="1"/>
+      <c r="AP19" s="1"/>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2748,18 +2859,10 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -2770,35 +2873,35 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>866711.09740446287</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
       <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="3">
         <v>621764.05098910001</v>
       </c>
-      <c r="AE20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="3">
-        <v>0</v>
-      </c>
       <c r="AI20" s="3">
         <v>0</v>
       </c>
@@ -2806,12 +2909,24 @@
         <v>0</v>
       </c>
       <c r="AK20" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="3">
+        <f>SUM(C20:AN20)</f>
         <v>1488475.148393563</v>
       </c>
-      <c r="AL20" s="1"/>
+      <c r="AP20" s="1"/>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2863,18 +2978,10 @@
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
       <c r="V21" s="3">
         <v>0</v>
       </c>
@@ -2888,45 +2995,57 @@
         <v>0</v>
       </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
         <v>394888.99377584457</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>0</v>
-      </c>
       <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3">
         <v>1300.931</v>
       </c>
-      <c r="AF21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="3">
-        <v>0</v>
-      </c>
       <c r="AJ21" s="3">
         <v>0</v>
       </c>
       <c r="AK21" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="3">
+        <f>SUM(C21:AN21)</f>
         <v>396189.92477584456</v>
       </c>
-      <c r="AL21" s="1"/>
+      <c r="AP21" s="1"/>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -2978,18 +3097,10 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
       <c r="V22" s="3">
         <v>0</v>
       </c>
@@ -3006,42 +3117,54 @@
         <v>0</v>
       </c>
       <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
         <v>1744612.806284328</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>0</v>
-      </c>
       <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="3">
         <v>111816.2068226</v>
       </c>
-      <c r="AG22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="3">
-        <v>0</v>
-      </c>
       <c r="AK22" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="3">
+        <f>SUM(C22:AN22)</f>
         <v>1856429.013106928</v>
       </c>
-      <c r="AL22" s="1"/>
+      <c r="AP22" s="1"/>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -3093,18 +3216,10 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
       <c r="V23" s="3">
         <v>0</v>
       </c>
@@ -3124,39 +3239,51 @@
         <v>0</v>
       </c>
       <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
         <v>166202.63501579239</v>
       </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>0</v>
-      </c>
       <c r="AG23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="3">
         <v>25527.9421883</v>
       </c>
-      <c r="AH23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="3">
-        <f t="shared" si="0"/>
+      <c r="AL23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="3">
+        <f>SUM(C23:AN23)</f>
         <v>191730.57720409238</v>
       </c>
-      <c r="AL23" s="1"/>
+      <c r="AP23" s="1"/>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -3208,36 +3335,28 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>3996.188438234065</v>
       </c>
-      <c r="T24" s="3">
+      <c r="X24" s="3">
         <v>34558.29149460671</v>
       </c>
-      <c r="U24" s="3">
+      <c r="Y24" s="3">
         <v>1023.413091366946</v>
       </c>
-      <c r="V24" s="3">
+      <c r="Z24" s="3">
         <v>10811.499510206721</v>
       </c>
-      <c r="W24" s="3">
+      <c r="AA24" s="3">
         <v>178.55368740404381</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
@@ -3257,21 +3376,33 @@
         <v>0</v>
       </c>
       <c r="AH24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="3">
         <v>240.0736353091998</v>
       </c>
-      <c r="AI24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="3">
+      <c r="AM24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="3">
         <v>1835.4957290789109</v>
       </c>
-      <c r="AK24" s="3">
-        <f t="shared" si="0"/>
+      <c r="AO24" s="3">
+        <f>SUM(C24:AN24)</f>
         <v>71966.954000000012</v>
       </c>
-      <c r="AL24" s="1"/>
+      <c r="AP24" s="1"/>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -3323,36 +3454,28 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-      <c r="R25" s="3">
-        <v>0</v>
-      </c>
-      <c r="S25" s="3">
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
         <v>17943.972220440472</v>
       </c>
-      <c r="T25" s="3">
+      <c r="X25" s="3">
         <v>602480.21798792307</v>
       </c>
-      <c r="U25" s="3">
+      <c r="Y25" s="3">
         <v>109520.3098067582</v>
       </c>
-      <c r="V25" s="3">
+      <c r="Z25" s="3">
         <v>220074.68536718321</v>
       </c>
-      <c r="W25" s="3">
+      <c r="AA25" s="3">
         <v>19653.690501336001</v>
       </c>
-      <c r="X25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>0</v>
-      </c>
       <c r="AB25" s="3">
         <v>0</v>
       </c>
@@ -3372,21 +3495,33 @@
         <v>0</v>
       </c>
       <c r="AH25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="3">
         <v>80650.491345930408</v>
       </c>
-      <c r="AI25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="3">
+      <c r="AM25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="3">
         <v>18413.506231204839</v>
       </c>
-      <c r="AK25" s="3">
-        <f t="shared" si="0"/>
+      <c r="AO25" s="3">
+        <f>SUM(C25:AN25)</f>
         <v>1312857.8225330003</v>
       </c>
-      <c r="AL25" s="1"/>
+      <c r="AP25" s="1"/>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -3438,36 +3573,28 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>1594.1308672362709</v>
       </c>
-      <c r="T26" s="3">
+      <c r="X26" s="3">
         <v>55323.282019805883</v>
       </c>
-      <c r="U26" s="3">
+      <c r="Y26" s="3">
         <v>25122.243216632771</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Z26" s="3">
         <v>72425.199510092585</v>
       </c>
-      <c r="W26" s="3">
+      <c r="AA26" s="3">
         <v>3964.990919033075</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
@@ -3487,21 +3614,33 @@
         <v>0</v>
       </c>
       <c r="AH26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="3">
         <v>198189.8347869459</v>
       </c>
-      <c r="AI26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="3">
+      <c r="AM26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="3">
         <v>644.54463038140375</v>
       </c>
-      <c r="AK26" s="3">
-        <f t="shared" si="0"/>
+      <c r="AO26" s="3">
+        <f>SUM(C26:AN26)</f>
         <v>395124.5</v>
       </c>
-      <c r="AL26" s="1"/>
+      <c r="AP26" s="1"/>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -3553,36 +3692,28 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>6575.3359149622038</v>
       </c>
-      <c r="T27" s="3">
+      <c r="X27" s="3">
         <v>163287.25764054371</v>
       </c>
-      <c r="U27" s="3">
+      <c r="Y27" s="3">
         <v>40595.942878211237</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Z27" s="3">
         <v>387131.1760648177</v>
       </c>
-      <c r="W27" s="3">
+      <c r="AA27" s="3">
         <v>47452.783617326037</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
         <v>0</v>
       </c>
@@ -3602,21 +3733,33 @@
         <v>0</v>
       </c>
       <c r="AH27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="3">
         <v>65303.835201948328</v>
       </c>
-      <c r="AI27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="3">
+      <c r="AM27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="3">
         <v>1643.498739329418</v>
       </c>
-      <c r="AK27" s="3">
-        <f t="shared" si="0"/>
+      <c r="AO27" s="3">
+        <f>SUM(C27:AN27)</f>
         <v>1833573.0569122001</v>
       </c>
-      <c r="AL27" s="1"/>
+      <c r="AP27" s="1"/>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3668,36 +3811,28 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-      <c r="R28" s="3">
-        <v>0</v>
-      </c>
-      <c r="S28" s="3">
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
         <v>1019.133316459864</v>
       </c>
-      <c r="T28" s="3">
+      <c r="X28" s="3">
         <v>35993.614738290387</v>
       </c>
-      <c r="U28" s="3">
+      <c r="Y28" s="3">
         <v>12816.26786316025</v>
       </c>
-      <c r="V28" s="3">
+      <c r="Z28" s="3">
         <v>46940.108222649927</v>
       </c>
-      <c r="W28" s="3">
+      <c r="AA28" s="3">
         <v>7458.0604669989107</v>
       </c>
-      <c r="X28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="3">
-        <v>0</v>
-      </c>
       <c r="AB28" s="3">
         <v>0</v>
       </c>
@@ -3720,18 +3855,30 @@
         <v>0</v>
       </c>
       <c r="AI28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="3">
         <v>39001.662743849112</v>
       </c>
-      <c r="AJ28" s="3">
+      <c r="AN28" s="3">
         <v>1456.6716700054251</v>
       </c>
-      <c r="AK28" s="3">
-        <f t="shared" si="0"/>
+      <c r="AO28" s="3">
+        <f>SUM(C28:AN28)</f>
         <v>185304.25755479996</v>
       </c>
-      <c r="AL28" s="1"/>
+      <c r="AP28" s="1"/>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3783,21 +3930,13 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3">
         <v>1193.876</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
@@ -3841,12 +3980,24 @@
         <v>0</v>
       </c>
       <c r="AK29" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="3">
+        <f>SUM(C29:AN29)</f>
         <v>1193.876</v>
       </c>
-      <c r="AL29" s="1"/>
+      <c r="AP29" s="1"/>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -3898,21 +4049,13 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3">
         <v>621764.05098910001</v>
       </c>
-      <c r="S30" s="3">
-        <v>0</v>
-      </c>
-      <c r="T30" s="3">
-        <v>0</v>
-      </c>
-      <c r="U30" s="3">
-        <v>0</v>
-      </c>
-      <c r="V30" s="3">
-        <v>0</v>
-      </c>
       <c r="W30" s="3">
         <v>0</v>
       </c>
@@ -3956,12 +4099,24 @@
         <v>0</v>
       </c>
       <c r="AK30" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="3">
+        <f>SUM(C30:AN30)</f>
         <v>621764.05098910001</v>
       </c>
-      <c r="AL30" s="1"/>
+      <c r="AP30" s="1"/>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -4013,21 +4168,13 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3">
         <v>1300.931</v>
       </c>
-      <c r="S31" s="3">
-        <v>0</v>
-      </c>
-      <c r="T31" s="3">
-        <v>0</v>
-      </c>
-      <c r="U31" s="3">
-        <v>0</v>
-      </c>
-      <c r="V31" s="3">
-        <v>0</v>
-      </c>
       <c r="W31" s="3">
         <v>0</v>
       </c>
@@ -4071,12 +4218,24 @@
         <v>0</v>
       </c>
       <c r="AK31" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="3">
+        <f>SUM(C31:AN31)</f>
         <v>1300.931</v>
       </c>
-      <c r="AL31" s="1"/>
+      <c r="AP31" s="1"/>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -4128,21 +4287,13 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3">
         <v>111816.2068226</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -4186,12 +4337,24 @@
         <v>0</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="3">
+        <f>SUM(C32:AN32)</f>
         <v>111816.2068226</v>
       </c>
-      <c r="AL32" s="1"/>
+      <c r="AP32" s="1"/>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -4243,21 +4406,13 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3">
         <v>25527.9421883</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
@@ -4301,12 +4456,24 @@
         <v>0</v>
       </c>
       <c r="AK33" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="3">
+        <f>SUM(C33:AN33)</f>
         <v>25527.9421883</v>
       </c>
-      <c r="AL33" s="1"/>
+      <c r="AP33" s="1"/>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -4358,18 +4525,10 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-      <c r="R34" s="3">
-        <v>0</v>
-      </c>
-      <c r="S34" s="3">
-        <v>0</v>
-      </c>
-      <c r="T34" s="3">
-        <v>0</v>
-      </c>
-      <c r="U34" s="3">
-        <v>0</v>
-      </c>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
       <c r="V34" s="3">
         <v>0</v>
       </c>
@@ -4416,12 +4575,24 @@
         <v>0</v>
       </c>
       <c r="AK34" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="3">
+        <f>SUM(C34:AN34)</f>
         <v>590232.17181662749</v>
       </c>
-      <c r="AL34" s="1"/>
+      <c r="AP34" s="1"/>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
@@ -4473,18 +4644,10 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
       <c r="V35" s="3">
         <v>0</v>
       </c>
@@ -4531,12 +4694,24 @@
         <v>0</v>
       </c>
       <c r="AK35" s="3">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="3">
+        <f>SUM(C35:AN35)</f>
         <v>40175.241511300002</v>
       </c>
-      <c r="AL35" s="1"/>
+      <c r="AP35" s="1"/>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -4588,18 +4763,10 @@
       <c r="Q36" s="3">
         <v>0</v>
       </c>
-      <c r="R36" s="3">
-        <v>0</v>
-      </c>
-      <c r="S36" s="3">
-        <v>0</v>
-      </c>
-      <c r="T36" s="3">
-        <v>0</v>
-      </c>
-      <c r="U36" s="3">
-        <v>0</v>
-      </c>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
       <c r="V36" s="3">
         <v>0</v>
       </c>
@@ -4637,21 +4804,33 @@
         <v>0</v>
       </c>
       <c r="AH36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="3">
         <v>23993.717000000001</v>
       </c>
-      <c r="AI36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="3">
-        <f t="shared" si="0"/>
+      <c r="AM36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="3">
+        <f>SUM(C36:AN36)</f>
         <v>23993.717000000001</v>
       </c>
-      <c r="AL36" s="1"/>
+      <c r="AP36" s="1"/>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
@@ -4663,139 +4842,143 @@
         <v>479819.21859134105</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" ref="D37:AJ37" si="1">SUM(D3:D36)</f>
+        <f t="shared" ref="D37:AN37" si="0">SUM(D3:D36)</f>
         <v>433589.54540865897</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>780032.19400310004</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46640.817996899998</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20164.852051745802</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>89879.938491701701</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>177745.08257295267</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>292908.32654043287</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>594688.26434316707</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>564695.31200000003</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>662919.92576177302</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>96377.730160772247</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="1"/>
+        <f>SUM(O3:O36)</f>
+        <v>23757.155999999999</v>
+      </c>
+      <c r="P37" s="3">
+        <f>SUM(P3:P36)</f>
+        <v>328836.58748042781</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" si="0"/>
         <v>72174.278000000006</v>
       </c>
-      <c r="P37" s="3">
-        <f t="shared" si="1"/>
-        <v>328836.58748042781</v>
-      </c>
-      <c r="Q37" s="3">
-        <f t="shared" si="1"/>
-        <v>23757.155999999999</v>
-      </c>
-      <c r="R37" s="3">
-        <f t="shared" si="1"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3">
+        <f t="shared" si="0"/>
         <v>761603.00699999998</v>
       </c>
-      <c r="S37" s="3">
-        <f t="shared" si="1"/>
+      <c r="W37" s="3">
+        <f t="shared" si="0"/>
         <v>64034.049361680358</v>
       </c>
-      <c r="T37" s="3">
-        <f t="shared" si="1"/>
+      <c r="X37" s="3">
+        <f t="shared" si="0"/>
         <v>1488475.1483935632</v>
       </c>
-      <c r="U37" s="3">
-        <f t="shared" si="1"/>
+      <c r="Y37" s="3">
+        <f t="shared" si="0"/>
         <v>396189.92477584456</v>
       </c>
-      <c r="V37" s="3">
-        <f t="shared" si="1"/>
+      <c r="Z37" s="3">
+        <f t="shared" si="0"/>
         <v>1856429.013106928</v>
       </c>
-      <c r="W37" s="3">
-        <f t="shared" si="1"/>
+      <c r="AA37" s="3">
+        <f t="shared" si="0"/>
         <v>191730.57720409232</v>
       </c>
-      <c r="X37" s="3">
-        <f t="shared" si="1"/>
+      <c r="AB37" s="3">
+        <f t="shared" si="0"/>
         <v>71966.954000000012</v>
       </c>
-      <c r="Y37" s="3">
-        <f t="shared" si="1"/>
+      <c r="AC37" s="3">
+        <f t="shared" si="0"/>
         <v>1312857.8225330003</v>
       </c>
-      <c r="Z37" s="3">
-        <f t="shared" si="1"/>
+      <c r="AD37" s="3">
+        <f t="shared" si="0"/>
         <v>395124.5</v>
       </c>
-      <c r="AA37" s="3">
-        <f t="shared" si="1"/>
+      <c r="AE37" s="3">
+        <f t="shared" si="0"/>
         <v>1833573.0569122001</v>
       </c>
-      <c r="AB37" s="3">
-        <f t="shared" si="1"/>
+      <c r="AF37" s="3">
+        <f t="shared" si="0"/>
         <v>185304.25755480002</v>
       </c>
-      <c r="AC37" s="3">
-        <f t="shared" si="1"/>
+      <c r="AG37" s="3">
+        <f t="shared" si="0"/>
         <v>1193.876</v>
       </c>
-      <c r="AD37" s="3">
-        <f t="shared" si="1"/>
+      <c r="AH37" s="3">
+        <f t="shared" si="0"/>
         <v>621764.05098910001</v>
       </c>
-      <c r="AE37" s="3">
-        <f t="shared" si="1"/>
+      <c r="AI37" s="3">
+        <f t="shared" si="0"/>
         <v>1300.931</v>
       </c>
-      <c r="AF37" s="3">
-        <f t="shared" si="1"/>
+      <c r="AJ37" s="3">
+        <f t="shared" si="0"/>
         <v>111816.2068226</v>
       </c>
-      <c r="AG37" s="3">
-        <f t="shared" si="1"/>
+      <c r="AK37" s="3">
+        <f t="shared" si="0"/>
         <v>25527.9421883</v>
       </c>
-      <c r="AH37" s="3">
-        <f t="shared" si="1"/>
+      <c r="AL37" s="3">
+        <f t="shared" si="0"/>
         <v>590232.17181662773</v>
       </c>
-      <c r="AI37" s="3">
-        <f t="shared" si="1"/>
+      <c r="AM37" s="3">
+        <f t="shared" si="0"/>
         <v>40175.24151130001</v>
       </c>
-      <c r="AJ37" s="3">
-        <f t="shared" si="1"/>
+      <c r="AN37" s="3">
+        <f t="shared" si="0"/>
         <v>23993.716999999993</v>
       </c>
-      <c r="AK37" s="3"/>
-      <c r="AL37" s="1"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
